--- a/네이버뉴스/102_test.xlsx
+++ b/네이버뉴스/102_test.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:D41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,12 +436,12 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>기사 제목</t>
+          <t>제목</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>기사 입력시각</t>
+          <t>날짜</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -458,12 +458,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>[속보] 신규 확진 7175명· 위중증 840명… 역대 최다치 경신</t>
+          <t>검찰, ‘불법 브로커 의혹’ 윤우진 전 용산세무서장 구속 기소</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021.12.08. 오전 9:49</t>
+          <t>2021.12.23 18:37</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -476,12 +476,12 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>[렌즈로 본 세상]수심 깊어진 노량진수산시장</t>
+          <t>트리 명소 찾아 기념촬영하는 시민들</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021.12.08. 오전 9:49</t>
+          <t>2021.12.23 18:36</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -494,12 +494,12 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>단양 폐사 멧돼지 5마리 ASF 양성…충북 누적 28건</t>
+          <t>트리 앞 기념촬영하며 지친 마음 달래요</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021.12.08. 오전 9:48</t>
+          <t>2021.12.23 18:36</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -512,12 +512,12 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>[인사]도로교통공단 2021년 12월 8일</t>
+          <t>'인증샷 찍자' 인파 몰린 타임스퀘어 광장</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021.12.08. 오전 9:48</t>
+          <t>2021.12.23 18:36</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -530,12 +530,12 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>경북 구미 해평(강정)습지 천연기념물 흑두루미, 재두루미 다 어디갔나</t>
+          <t>대형트리 휴대전화에 담으며 '연말 즐겨요'</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021.12.08. 오전 9:48</t>
+          <t>2021.12.23 18:36</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -548,12 +548,12 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>코로나19 수출위기, 비대면 화상상담회로 해외수출 뚫는다</t>
+          <t>야경 명소엔 인증샷 인파 붐벼</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021.12.08. 오전 9:48</t>
+          <t>2021.12.23 18:36</t>
         </is>
       </c>
       <c r="C7" t="n">
@@ -566,12 +566,12 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>쓰레기 '종량제에서 중량제' 시대로…제주 '그린도시' 시동</t>
+          <t>배민 라이더들 "7년째 기본배달료 3000원..인상해야"</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021.12.08. 오전 9:47</t>
+          <t>2021.12.23 18:36</t>
         </is>
       </c>
       <c r="C8" t="n">
@@ -584,12 +584,12 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>코로나19 신규확진 7175명·위중증 840명…'역대 최대' (상보)</t>
+          <t>'세무조사 무마' 브로커 의혹 윤우진…檢 구속기소</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2021.12.08. 오전 9:47</t>
+          <t>2021.12.23 18:36</t>
         </is>
       </c>
       <c r="C9" t="n">
@@ -602,12 +602,12 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>"부산시교육청, 온라인 교육 등 코로나19 대응 잘한다"</t>
+          <t>야경 명소 찾아 '사진 순례'</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2021.12.08. 오전 9:47</t>
+          <t>2021.12.23 18:35</t>
         </is>
       </c>
       <c r="C10" t="n">
@@ -620,12 +620,12 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>"원인불명 자가면역질환 진단 모그항체 검사 정확성 향상"</t>
+          <t>크리스마스 분위기 물씬</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2021.12.08. 오전 9:47</t>
+          <t>2021.12.23 18:35</t>
         </is>
       </c>
       <c r="C11" t="n">
@@ -638,12 +638,12 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>안산 반달섬에 노보텔 앰배서더 호텔 유치…7천억 투자</t>
+          <t>기념사진 찍으며 크리스마스 분위기 즐겨요</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2021.12.08. 오전 9:47</t>
+          <t>2021.12.23 18:35</t>
         </is>
       </c>
       <c r="C12" t="n">
@@ -656,30 +656,30 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>[속보]국내 오미크론 변이 감염자 2명↑…누적 확진자 38명</t>
+          <t>대형 트리 앞 인증샷 인파</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2021.12.08. 오전 9:47</t>
+          <t>2021.12.23 18:35</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>7회에 걸쳐 1억원 조직에 전달한 20대 보이스피싱 수거책 검거</t>
+          <t>대형 트리 앞 인증샷 위한 긴 줄</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2021.12.08. 오전 9:47</t>
+          <t>2021.12.23 18:35</t>
         </is>
       </c>
       <c r="C14" t="n">
@@ -692,12 +692,12 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>"돈있는 사람 못 이긴다 했는데... 판결에 얼싸안고 울어"</t>
+          <t>'트리 인증샷 명소' 인파</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2021.12.08. 오전 9:47</t>
+          <t>2021.12.23 18:35</t>
         </is>
       </c>
       <c r="C15" t="n">
@@ -710,12 +710,12 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>여행전문 조사기관 "단양군 여름 휴가지 만족도 전국 2위"</t>
+          <t>한국법무보호복지공단 신청사 개청</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2021.12.08. 오전 9:46</t>
+          <t>2021.12.23 18:35</t>
         </is>
       </c>
       <c r="C16" t="n">
@@ -728,12 +728,12 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>경북도, 화학사고 예방 집중...안전진단·시설개선</t>
+          <t>'대장동 키맨' 유동규 "김문기 공사 위해 일해 왔는데, 비통"</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2021.12.08. 오전 9:46</t>
+          <t>2021.12.23 18:35</t>
         </is>
       </c>
       <c r="C17" t="n">
@@ -746,12 +746,12 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>하청 노동자 끼임 사망사고 한일시멘트 직원 5명 송치</t>
+          <t>민주당 광주 선대위 '캐스퍼' 생산 현장서 소통행보</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>2021.12.08. 오전 9:46</t>
+          <t>2021.12.23 18:35</t>
         </is>
       </c>
       <c r="C18" t="n">
@@ -764,12 +764,12 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>이주민 건강보험제도 이대론 안된다…인권위 토론회</t>
+          <t>장수군산림조합, 산림조합금융 종합업적평가 금상 수상</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>2021.12.08. 오전 9:46</t>
+          <t>2021.12.23 18:35</t>
         </is>
       </c>
       <c r="C19" t="n">
@@ -782,12 +782,12 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>[청주소식] 시, 교통사고 가짜환자 불시 점검 등</t>
+          <t>무안군 몽탄면보건지소 ‘물리치료형’ 보건지소로 새 단장</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>2021.12.08. 오전 9:46</t>
+          <t>2021.12.23 18:34</t>
         </is>
       </c>
       <c r="C20" t="n">
@@ -800,18 +800,378 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>[사고] 2021년 데일리안 경력기자를 모집합니다</t>
+          <t>동서대, 청년 해외취업 앞장 공로 ‘대통령 표창’</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>2021.12.08. 오전 9:46</t>
+          <t>2021.12.23 18:34</t>
         </is>
       </c>
       <c r="C21" t="n">
         <v>0</v>
       </c>
       <c r="D21" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>포항 "배터리 재활용 중심지 될 것"</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>2021.12.23 18:42</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>0</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>요양병원·종교시설 등 코로나 확산…광주·전남 88명 확진</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>2021.12.23 18:41</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>0</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>대법원, "조부모가 손자·손녀 입양 가능"</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>2021.12.23 18:41</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>0</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>[단독] 이석기 가석방 결정에도 “전자발찌 안 찬다”</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>2021.12.23 18:41</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>0</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>부산~울산 전철로 출퇴근…동해선 2단계 다음주 개통</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>2021.12.23 18:41</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>0</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>여수 폭발사고 이일산업 원·하청 대표 '산업안전보건법 위반' 입건</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>2021.12.23 18:40</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>0</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>포항시, 코로나 차단 위해 해맞이명소 호미곶 차량 통제</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>2021.12.23 18:40</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>0</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>서울시의회 "예산안 반드시 연내 처리…오세훈 협조해야"</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>2021.12.23 18:40</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>0</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>군위군 품는 대구 "남부권 관문도시로"</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>2021.12.23 18:40</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>0</v>
+      </c>
+      <c r="D30" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>방위산업 키우는 경남…中企 육성 나선다</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>2021.12.23 18:40</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>0</v>
+      </c>
+      <c r="D31" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>경남, 176억 스마트 그린뉴딜 펀드 조성</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>2021.12.23 18:40</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>0</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>"2030년까지 온실가스 40% 감축"…정부, UN에 제출</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>2021.12.23 18:39</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>0</v>
+      </c>
+      <c r="D33" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>포스코, 스페이스워크 市에 기부</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>2021.12.23 18:39</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>0</v>
+      </c>
+      <c r="D34" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>경남 '찾아가는 도민노무사' 운영</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>2021.12.23 18:39</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>0</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>[포토뉴스] 대구 대규모 단독주택지 종상향 50년만에 허용</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>2021.12.23 18:39</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>0</v>
+      </c>
+      <c r="D36" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>천안에서 불법 게임장·성매매 영업 안마소 적발</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>2021.12.23 18:38</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>0</v>
+      </c>
+      <c r="D37" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>대구, 지역대학 육성정책포럼</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>2021.12.23 18:38</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>0</v>
+      </c>
+      <c r="D38" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>"종로구 마을 저상버스 1대도 없어"…장애인 단체 기자회견</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>2021.12.23 18:37</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>0</v>
+      </c>
+      <c r="D39" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>검찰, ‘불법 브로커 의혹’ 윤우진 전 용산세무서장 구속 기소</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>2021.12.23 18:37</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>0</v>
+      </c>
+      <c r="D40" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>트리 명소 찾아 기념촬영하는 시민들</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>2021.12.23 18:36</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>0</v>
+      </c>
+      <c r="D41" t="n">
         <v>0</v>
       </c>
     </row>
